--- a/nlp_service/patterns/nlp_patterns.xlsx
+++ b/nlp_service/patterns/nlp_patterns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>\d{6},\s*[А-Яа-я]+\s+[А-Яа-я]+,\s*[А-Яа-я\.\s,]+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Российский адрес с почтовым индексом</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(?:г\.|город)\s*[А-Яа-я]+,?\s*(?:ул\.|улица)\s*[А-Яа-я\s]+,?\s*(?:д\.|дом)\s*\d+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Адрес город-улица-дом</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[А-Яа-я]+\s+(?:край|область|республика),?\s*[А-Яа-я\.\s,]+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Региональный адрес</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>government_org</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Министерство\s+[а-яё\s]+?(?:края|области|республики|РФ)(?!\s*\n)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Министерства РФ/регионов (исправленный)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>government_org</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(?:Департамент|Управление|Комитет)\s+[а-яё\s]+\s+[А-Яа-я\s]+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Департаменты и управления</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>government_org</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(?:Федеральная служба|Федеральное агентство)\s+[а-яё\s]+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Федеральные службы и агентства</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Общество\s+с\s+ограниченной\s+ответственностью\s+[«»""][А-Яа-я\s\-]+[«»""]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Полное название ООО</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(?:Акционерное\s+общество|АО)\s+[«»""][А-Яа-я\s\-]+[«»""]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Акционерные общества</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>government_org</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Министерство\s+информационного\s+развития\s+и\s+связи\s+Пермского\s+края</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Точное совпадение для Министерства Пермского края</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>government_org</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(?:Министерство|Департамент|Управление|Комитет)\s+[а-яё\s]+?(?:края|области|республики)(?![а-яёА-Я])</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Региональные министерства и ведомства</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nlp_service/patterns/nlp_patterns.xlsx
+++ b/nlp_service/patterns/nlp_patterns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,6 +1209,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>contract_number</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>№\s*(\d{1,4}\/[А-ЯЁ]{1,10}\-\d{4})</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Номер государственного контракта формата №XX/XX-YYYY</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>contract_number</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>контракт[а-яё\s]*№\s*(\d{1,4}\/[А-ЯЁ]{1,10}\-\d{4})</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Номер контракта с ключевым словом контракт</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>contract_number</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>договор[а-яё\s]*№\s*(\d{1,4}\/[А-ЯЁ]{1,10}\-\d{4})</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Номер договора с ключевым словом договор</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>contract_number</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>\b(\d{1,4}\/[А-ЯЁ]{1,10}\-\d{4})\b</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Общий формат номера контракта XX/XX-YYYY</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
